--- a/data/trans_dic/P30_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P30_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no consume fruta diariamente</t>
+          <t>Población que no consume fruta diariamente (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>21,24%</t>
+          <t>21,86%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>24,97%</t>
+          <t>24,86%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>22,53%</t>
+          <t>24,71%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,2%</t>
+          <t>26,51%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,57%</t>
+          <t>17,21%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,52%</t>
+          <t>15,12%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>22,61%</t>
+          <t>16,37%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>19,4%</t>
+          <t>17,72%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>20,76%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>19,75%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>21,23%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,27; 26,0</t>
+          <t>15,37; 28,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,26; 30,88</t>
+          <t>18,36; 32,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,91; 27,88</t>
+          <t>17,72; 31,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,34; 20,4</t>
+          <t>17,26; 34,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,34; 24,99</t>
+          <t>9,53; 19,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,79; 21,8</t>
+          <t>12,39; 23,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,34; 22,25</t>
+          <t>10,5; 21,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,43; 26,5</t>
+          <t>11,66; 22,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,89; 23,19</t>
+          <t>13,6; 21,88</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>16,78; 25,67</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>15,28; 24,43</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>16,97; 26,07</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>22,74%</t>
+          <t>18,54%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>27,0%</t>
+          <t>18,91%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>28,32%</t>
+          <t>21,48%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>21,28%</t>
+          <t>18,76%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>25,85%</t>
+          <t>22,41%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,71%</t>
+          <t>26,49%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>21,97%</t>
+          <t>14,8%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>26,42%</t>
+          <t>24,83%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>23,98%</t>
+          <t>20,64%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>22,81%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>18,08%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>21,87%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,23; 33,42</t>
+          <t>12,1; 26,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,96; 36,02</t>
+          <t>12,4; 27,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>20,77; 36,88</t>
+          <t>14,24; 31,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,29; 27,49</t>
+          <t>12,21; 26,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,3; 32,55</t>
+          <t>15,92; 29,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,33; 27,84</t>
+          <t>19,97; 33,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,4; 27,6</t>
+          <t>9,62; 22,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,99; 31,71</t>
+          <t>16,72; 39,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,88; 29,69</t>
+          <t>16,2; 25,52</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>18,35; 28,09</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>13,19; 23,26</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>16,59; 30,53</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>17,37%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,83%</t>
+          <t>13,81%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>21,98%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>20,94%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>17,71%</t>
+          <t>18,3%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>15,88%</t>
+          <t>21,59%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>19,44%</t>
+          <t>27,43%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>19,15%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>16,08%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>17,11%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>24,61%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,61; 27,58</t>
+          <t>4,36; 38,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,11; 33,66</t>
+          <t>3,37; 35,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,58; 27,4</t>
+          <t>3,09; 33,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,84; 25,96</t>
+          <t>6,58; 45,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,51; 30,95</t>
+          <t>8,61; 36,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,55; 28,63</t>
+          <t>6,74; 34,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,24; 23,54</t>
+          <t>9,65; 37,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,96; 27,92</t>
+          <t>14,15; 45,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,6; 24,33</t>
+          <t>10,41; 31,3</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>8,25; 28,09</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>8,14; 29,06</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>12,74; 39,4</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>21,23%</t>
+          <t>20,01%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>25,2%</t>
+          <t>21,22%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>23,8%</t>
+          <t>22,09%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,18%</t>
+          <t>22,94%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>22,51%</t>
+          <t>18,24%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,93%</t>
+          <t>21,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,62%</t>
+          <t>15,64%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>23,79%</t>
+          <t>20,8%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>20,8%</t>
+          <t>19,06%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>21,13%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>18,79%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>21,84%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,32; 26,9</t>
+          <t>15,6; 24,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,27; 30,2</t>
+          <t>16,46; 26,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,77; 28,99</t>
+          <t>17,3; 27,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,31; 21,5</t>
+          <t>17,71; 28,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,09; 26,02</t>
+          <t>14,52; 22,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,59; 22,47</t>
+          <t>17,09; 25,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,07; 22,76</t>
+          <t>12,22; 19,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,99; 26,57</t>
+          <t>16,48; 27,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,15; 23,82</t>
+          <t>16,12; 22,33</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>18,2; 24,59</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>15,49; 21,81</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>18,64; 26,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no consume fruta diariamente (tasa de respuesta: 99,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>94020</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>90510</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>94083</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>136762</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>72310</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>72472</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>61599</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>91736</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>166330</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>162981</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>155682</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>228497</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>66105; 121387</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>66831; 117080</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>67486; 121822</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>89065; 177637</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>48478; 100828</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>52176; 100819</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>42786; 87500</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>65332; 124704</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>127666; 205466</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>131757; 201572</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>120429; 192543</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>182677; 280545</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>66647</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>60193</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>69305</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>77351</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>95331</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>89645</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>49592</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>107564</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>161978</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>149838</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>118898</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>184915</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>43496; 94914</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>39475; 86042</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>45942; 101694</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>50338; 110086</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>67735; 125556</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>67574; 112942</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>32227; 74020</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>72417; 169278</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>127157; 200292</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>120490; 184461</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>86765; 152968</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>140300; 258140</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>17677</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>10994</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>10937</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>26244</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>21184</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>14925</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>17824</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>30539</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>38861</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>25919</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>28762</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>56783</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4436; 38831</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2686; 28330</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2644; 28861</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7855; 53751</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8709; 36788</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5500; 27928</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7966; 31329</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>15754; 50889</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>21119; 63528</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>13303; 45260</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>13682; 48856</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>29386; 90926</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>178344</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>161697</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>174326</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>240357</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>188825</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>177042</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>129015</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>229838</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>367169</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>338739</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>303342</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>470195</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>138993; 219642</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>125449; 201218</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>136528; 219420</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>185522; 303727</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>150320; 237118</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>143729; 216585</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>100799; 163535</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>182116; 304170</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>310583; 430209</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>291712; 394257</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>250041; 351970</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>401272; 563020</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
